--- a/Assets/AssetsDevelop/Excels/LevelConfig.xlsx
+++ b/Assets/AssetsDevelop/Excels/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26083" windowHeight="10827" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -1026,13 +1026,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="32" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="14.4587155963303" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6880733944954" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7981651376147" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.4220183486239" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5779816513761" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5688073394495" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1192660550459" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.462962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6851851851852" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7962962962963" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.4259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5740740740741" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5648148148148" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1203703703704" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1101,14 +1101,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="10.2201834862385" customWidth="1"/>
-    <col min="3" max="3" width="15.954128440367" customWidth="1"/>
-    <col min="4" max="4" width="15.4495412844037" customWidth="1"/>
+    <col min="2" max="2" width="10.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="15.9537037037037" customWidth="1"/>
+    <col min="4" max="4" width="15.4537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
